--- a/data/synthetic_exp_results.xlsx
+++ b/data/synthetic_exp_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,6 +1663,402 @@
         <v>0.9046595512093797</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LGBM Baseline</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.565989847715736</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.565989847715736</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9968309859154929</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9968309859154929</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9981804369560553</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9981804369560553</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>LGBM Upsample</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1715260545905707</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9748037512393462</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9505003706449222</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9742003986364398</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.994321693648723</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9943616762474357</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>LGBM Downsample</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03798162621692033</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7399555226093403</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9711692506168886</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SMOTE LGBM</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.07346881765486417</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9143096339772789</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8770663454410674</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9113406478773541</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9708859657552483</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9692645787690264</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>LGBM Balanced Bagging</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3777452415812592</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3777452415812592</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9960618977020015</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9960618977020015</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9999730501107887</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9999730501107887</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LGBM_Imbalance</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0954427433073686</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0954427433073686</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9063843587842847</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9063843587842847</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9576621527591677</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9576621527591677</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>LGBM Baseline</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5572916666666667</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9947741002927987</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9968495181616012</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.7856255670059564</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9989981110762746</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LGBM Upsample</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0648854961832061</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9742856752684549</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.945517215818539</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9736942592109675</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8444959591937506</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9939958935087631</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LGBM Downsample</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02641408751334045</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.729513361254216</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8133324028620204</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SMOTE LGBM</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.04306350504224585</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9065770245264153</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8698713909788369</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9038436463882576</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8431981862846573</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9655339671578294</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LGBM Balanced Bagging</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4069767441860465</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9952929839516697</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9962194217939214</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8249686698971221</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9999287727692603</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Synthetic-0.5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>LGBM_Imbalance</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.02310924369747899</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.05368421052631579</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8621251992142619</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8667160859896219</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.6034083985200814</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8793823951574593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/synthetic_exp_results.xlsx
+++ b/data/synthetic_exp_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="21">
   <si>
     <t>Dataset</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Synthetic-0.5</t>
+  </si>
+  <si>
+    <t>minority_percent</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,13 +133,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -441,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,9 +472,10 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +500,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -508,8 +529,11 @@
       <c r="H2">
         <v>0.88357885509089751</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -534,8 +558,11 @@
       <c r="H3">
         <v>0.8867752657306327</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -560,8 +587,11 @@
       <c r="H4">
         <v>0.88526576460976891</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -586,8 +616,11 @@
       <c r="H5">
         <v>0.88460446091340472</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -612,8 +645,11 @@
       <c r="H6">
         <v>0.88562871805868537</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -638,8 +674,11 @@
       <c r="H7">
         <v>0.88395010004512298</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -664,8 +703,11 @@
       <c r="H8">
         <v>0.88736155271554407</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -690,8 +732,11 @@
       <c r="H9">
         <v>0.89268508594158713</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -716,8 +761,11 @@
       <c r="H10">
         <v>0.89429229191036874</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -742,8 +790,11 @@
       <c r="H11">
         <v>0.89123511062245775</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -768,8 +819,11 @@
       <c r="H12">
         <v>0.89137373484141058</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -794,8 +848,11 @@
       <c r="H13">
         <v>0.8887855108941578</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -820,8 +877,11 @@
       <c r="H14">
         <v>0.89731856090507622</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -846,8 +906,11 @@
       <c r="H15">
         <v>0.90496645853413349</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -872,8 +935,11 @@
       <c r="H16">
         <v>0.91076083934161556</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -898,8 +964,11 @@
       <c r="H17">
         <v>0.89989273368310652</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -924,8 +993,11 @@
       <c r="H18">
         <v>0.90934815483807541</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -950,8 +1022,11 @@
       <c r="H19">
         <v>0.90465955120937969</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -976,8 +1051,11 @@
       <c r="H20">
         <v>0.91494631605149945</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1002,8 +1080,11 @@
       <c r="H21">
         <v>0.92336549049436756</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1028,8 +1109,11 @@
       <c r="H22">
         <v>0.93792014974736471</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1054,8 +1138,11 @@
       <c r="H23">
         <v>0.91075083904113596</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1080,8 +1167,11 @@
       <c r="H24">
         <v>0.93877051504003806</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1106,8 +1196,11 @@
       <c r="H25">
         <v>0.92323479329522873</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1132,8 +1225,11 @@
       <c r="H26">
         <v>0.9769449952352226</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1158,8 +1254,11 @@
       <c r="H27">
         <v>0.97733536839951585</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1184,8 +1283,11 @@
       <c r="H28">
         <v>0.99962088650840875</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1210,8 +1312,11 @@
       <c r="H29">
         <v>0.95256176452739383</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1236,8 +1341,11 @@
       <c r="H30">
         <v>0.9964385343719675</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1370,11 @@
       <c r="H31">
         <v>0.97150311677638757</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1288,8 +1399,11 @@
       <c r="H32">
         <v>0.99899811107627456</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1314,8 +1428,11 @@
       <c r="H33">
         <v>0.99399589350876305</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1340,8 +1457,11 @@
       <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1366,8 +1486,11 @@
       <c r="H35">
         <v>0.96553396715782935</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1392,8 +1515,11 @@
       <c r="H36">
         <v>0.99992877276926029</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1417,6 +1543,9 @@
       </c>
       <c r="H37">
         <v>0.87938239515745931</v>
+      </c>
+      <c r="I37">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/synthetic_exp_results.xlsx
+++ b/data/synthetic_exp_results.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:I37"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
